--- a/data_visualization/f12/data/vehicle_distribution.xlsx
+++ b/data_visualization/f12/data/vehicle_distribution.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="lavida" sheetId="4" r:id="rId3"/>
+    <sheet name="Tiguan" sheetId="5" r:id="rId4"/>
+    <sheet name="passat" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
   <si>
     <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +100,107 @@
   <si>
     <t>Private</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>西藏</t>
   </si>
 </sst>
 </file>
@@ -139,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,12 +251,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -172,7 +348,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -429,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1059,4 +1235,774 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="4">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>